--- a/Test/Lawnmower/T2/Sensors_data_1000019.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9996938722018771</v>
+        <v>0.9880877908737506</v>
       </c>
       <c r="D2" t="n">
-        <v>1.921405210406967e-05</v>
+        <v>0.000625481018159095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06636864397126413</v>
+        <v>0.07817663590933399</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9728214155239741</v>
+        <v>0.9406359805402561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001795012031222077</v>
+        <v>0.002718592707626946</v>
       </c>
       <c r="E3" t="n">
-        <v>0.156879399872329</v>
+        <v>0.2790690144337591</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,18 +525,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9949425043106698</v>
+        <v>0.9676924706732796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003684511771032473</v>
+        <v>0.001909810428886696</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002496607322376831</v>
+        <v>0.07982828507305789</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9982834012320642</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00010774199001574</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0831215071589671</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
